--- a/doc/导入课程任务测试数据高一123班.xlsx
+++ b/doc/导入课程任务测试数据高一123班.xlsx
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="172">
   <si>
     <t>课程计划导入模板(请严格对照数据库信息填写)</t>
   </si>
@@ -1471,6 +1471,22 @@
   </si>
   <si>
     <t>张小龙</t>
+  </si>
+  <si>
+    <t>20200103</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-2020-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200104</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2507,10 +2523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3979,7 +3995,7 @@
         <v>158</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>155</v>
@@ -4009,8 +4025,330 @@
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/导入课程任务测试数据高一123班.xlsx
+++ b/doc/导入课程任务测试数据高一123班.xlsx
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="195">
   <si>
     <t>课程计划导入模板(请严格对照数据库信息填写)</t>
   </si>
@@ -810,10 +810,6 @@
   </si>
   <si>
     <t>6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1448,9 +1444,6 @@
     <t>江晓东</t>
   </si>
   <si>
-    <t>莫老师</t>
-  </si>
-  <si>
     <t>甘楠</t>
   </si>
   <si>
@@ -1486,6 +1479,233 @@
   </si>
   <si>
     <t>20200104</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑小红</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <r>
+      <t>45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩云</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡冬梅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三封</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>江晓东</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘楠</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫小新</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡小小</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张小龙</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张杰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200105</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1558,7 +1778,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1566,6 +1786,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2525,8 +2748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2540,21 +2763,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2643,7 +2866,7 @@
         <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>61</v>
@@ -2696,7 +2919,7 @@
         <v>29</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>26</v>
@@ -2816,7 +3039,7 @@
         <v>50</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>94</v>
@@ -2854,7 +3077,7 @@
         <v>50</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>94</v>
@@ -2892,7 +3115,7 @@
         <v>50</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>94</v>
@@ -2915,7 +3138,7 @@
         <v>73</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F11">
         <v>10042</v>
@@ -2930,7 +3153,7 @@
         <v>50</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>94</v>
@@ -3015,7 +3238,7 @@
         <v>94</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>96</v>
@@ -3161,7 +3384,7 @@
         <v>29</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>26</v>
@@ -3357,7 +3580,7 @@
         <v>50</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>94</v>
@@ -3380,7 +3603,7 @@
         <v>73</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F23">
         <v>10042</v>
@@ -3480,7 +3703,7 @@
         <v>94</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>95</v>
@@ -3535,34 +3758,34 @@
         <v>19</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F27">
         <v>10034</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="J27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="K27" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="L27" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -3573,34 +3796,34 @@
         <v>59</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F28">
         <v>10035</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H28" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I28" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="J28" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -3611,34 +3834,34 @@
         <v>20</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F29">
         <v>10029</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="K29" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="L29" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -3649,13 +3872,13 @@
         <v>33</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F30">
         <v>10025</v>
@@ -3664,19 +3887,19 @@
         <v>45</v>
       </c>
       <c r="H30" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="K30" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -3687,34 +3910,34 @@
         <v>33</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F31">
         <v>10037</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>160</v>
+      <c r="G31" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="H31" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I31" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="K31" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -3725,34 +3948,34 @@
         <v>35</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F32">
         <v>10038</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I32" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="K32" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -3763,34 +3986,34 @@
         <v>35</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F33">
         <v>10036</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M33" s="2"/>
     </row>
@@ -3802,34 +4025,34 @@
         <v>65</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="F34">
         <v>10031</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -3840,34 +4063,34 @@
         <v>65</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="F35">
         <v>10040</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -3878,34 +4101,34 @@
         <v>66</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F36">
         <v>10039</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H36" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L36" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -3916,13 +4139,13 @@
         <v>65</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="F37">
         <v>10041</v>
@@ -3931,22 +4154,22 @@
         <v>56</v>
       </c>
       <c r="H37" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="J37" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="K37" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M37" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -3957,13 +4180,13 @@
         <v>85</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F38">
         <v>10025</v>
@@ -3972,19 +4195,19 @@
         <v>45</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -3992,16 +4215,16 @@
         <v>14</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F39">
         <v>10023</v>
@@ -4010,19 +4233,19 @@
         <v>89</v>
       </c>
       <c r="H39" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I39" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="J39" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -4030,16 +4253,37 @@
         <v>84</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F40">
+        <v>10029</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>111</v>
+      <c r="I40" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -4050,13 +4294,34 @@
         <v>85</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>115</v>
+      <c r="F41">
+        <v>10033</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -4067,13 +4332,34 @@
         <v>19</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>121</v>
+      <c r="F42">
+        <v>10020</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -4084,13 +4370,34 @@
         <v>59</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>126</v>
+      <c r="F43">
+        <v>10035</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -4101,13 +4408,34 @@
         <v>20</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>130</v>
+      <c r="F44">
+        <v>10039</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -4118,13 +4446,34 @@
         <v>33</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="F45">
+        <v>10038</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -4135,13 +4484,34 @@
         <v>33</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+      <c r="F46">
+        <v>10036</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -4152,13 +4522,34 @@
         <v>35</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>138</v>
+      <c r="F47">
+        <v>10031</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -4169,16 +4560,37 @@
         <v>35</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>10040</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>18</v>
       </c>
@@ -4186,16 +4598,37 @@
         <v>65</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="F49">
+        <v>10039</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>18</v>
       </c>
@@ -4203,16 +4636,37 @@
         <v>65</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>10041</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>18</v>
       </c>
@@ -4220,16 +4674,37 @@
         <v>66</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="F51">
+        <v>10025</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>84</v>
       </c>
@@ -4237,117 +4712,528 @@
         <v>65</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="F52">
+        <v>10023</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F53">
+        <v>10029</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C54" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F54">
+        <v>10033</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C55" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F55">
+        <v>10020</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C56" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F56">
+        <v>10035</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C57" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F57">
+        <v>10039</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C58" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F58">
+        <v>10038</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C59" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F59">
+        <v>10036</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C60" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F60">
+        <v>10031</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C61" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F61">
+        <v>10040</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C62" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F62">
+        <v>10039</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C63" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F63">
+        <v>10041</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F64">
+        <v>10025</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>65</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F65">
+        <v>10023</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -4389,7 +5275,7 @@
   <sheetData>
     <row r="4" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
